--- a/dailyreport.xlsx
+++ b/dailyreport.xlsx
@@ -108,7 +108,7 @@
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="3">
@@ -574,15 +574,15 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="pageLayout">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="1" customWidth="1"/>
     <col min="5" max="29" width="4.375" style="1" customWidth="1"/>
     <col min="30" max="31" width="4.5" customWidth="1"/>
   </cols>

--- a/dailyreport.xlsx
+++ b/dailyreport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="40">
   <si>
     <t>일자</t>
   </si>
@@ -73,6 +73,72 @@
   <si>
     <t xml:space="preserve">전류
 평균</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>00:19:52</t>
+  </si>
+  <si>
+    <t>00:33:35</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>00:31:47</t>
+  </si>
+  <si>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>00:31:50</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>00:30:53</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>00:30:54</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>00:30:55</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>00:24:46</t>
+  </si>
+  <si>
+    <t>00:53:32</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>9-10</t>
   </si>
 </sst>
 </file>
@@ -125,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -172,26 +238,33 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="dotted"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="dotted"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted"/>
-      <right style="dotted"/>
+      <left style="thin"/>
+      <right/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
+      <left style="hair"/>
+      <right style="hair"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
@@ -207,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -242,16 +315,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -574,7 +665,7 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="pageLayout">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
@@ -752,752 +843,1332 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
+      <c r="A5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="12">
+        <v>29.32</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="12">
+        <v>21.17</v>
+      </c>
+      <c r="F5" s="12">
+        <v>126</v>
+      </c>
+      <c r="G5" s="12">
+        <v>10.89</v>
+      </c>
+      <c r="H5" s="12">
+        <v>13.89</v>
+      </c>
+      <c r="I5" s="12">
+        <v>90.28</v>
+      </c>
+      <c r="J5" s="12">
+        <v>5.78</v>
+      </c>
+      <c r="K5" s="12">
+        <v>11.6</v>
+      </c>
+      <c r="L5" s="12">
+        <v>107.67</v>
+      </c>
+      <c r="M5" s="12">
+        <v>10.28</v>
+      </c>
+      <c r="N5" s="12">
+        <v>17.86</v>
+      </c>
+      <c r="O5" s="12">
+        <v>232.4</v>
+      </c>
+      <c r="P5" s="12">
+        <v>13.61</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>17.88</v>
+      </c>
+      <c r="R5" s="12">
+        <v>105.62</v>
+      </c>
+      <c r="S5" s="12">
+        <v>10.69</v>
+      </c>
+      <c r="T5" s="12">
+        <v>12.61</v>
+      </c>
+      <c r="U5" s="12">
+        <v>131.41</v>
+      </c>
+      <c r="V5" s="12">
+        <v>14.24</v>
+      </c>
+      <c r="W5" s="12">
+        <v>14.87</v>
+      </c>
+      <c r="X5" s="12">
+        <v>227.2</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>12.84</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>15.74</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>147.77</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>7.76</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>10.72</v>
+      </c>
     </row>
     <row r="6" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
+      <c r="A6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12">
+        <v>31.49</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="12">
+        <v>21.83</v>
+      </c>
+      <c r="F6" s="12">
+        <v>115.27</v>
+      </c>
+      <c r="G6" s="12">
+        <v>6</v>
+      </c>
+      <c r="H6" s="12">
+        <v>12.64</v>
+      </c>
+      <c r="I6" s="12">
+        <v>12.64</v>
+      </c>
+      <c r="J6" s="12">
+        <v>7.58</v>
+      </c>
+      <c r="K6" s="12">
+        <v>10.36</v>
+      </c>
+      <c r="L6" s="12">
+        <v>109.58</v>
+      </c>
+      <c r="M6" s="12">
+        <v>9.04</v>
+      </c>
+      <c r="N6" s="12">
+        <v>14.28</v>
+      </c>
+      <c r="O6" s="12">
+        <v>24.29</v>
+      </c>
+      <c r="P6" s="12">
+        <v>13.51</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>17.95</v>
+      </c>
+      <c r="R6" s="12">
+        <v>14.32</v>
+      </c>
+      <c r="S6" s="12">
+        <v>10.79</v>
+      </c>
+      <c r="T6" s="12">
+        <v>12.29</v>
+      </c>
+      <c r="U6" s="12">
+        <v>15.39</v>
+      </c>
+      <c r="V6" s="12">
+        <v>14.09</v>
+      </c>
+      <c r="W6" s="12">
+        <v>14.73</v>
+      </c>
+      <c r="X6" s="12">
+        <v>16.73</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>15.31</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>16.01</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>11.53</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>10.55</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>11.04</v>
+      </c>
     </row>
     <row r="7" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12">
+        <v>31.43</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="12">
+        <v>21.82</v>
+      </c>
+      <c r="F7" s="12">
+        <v>119.14</v>
+      </c>
+      <c r="G7" s="12">
+        <v>10.1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>12.86</v>
+      </c>
+      <c r="I7" s="12">
+        <v>12.43</v>
+      </c>
+      <c r="J7" s="12">
+        <v>7.32</v>
+      </c>
+      <c r="K7" s="12">
+        <v>10.05</v>
+      </c>
+      <c r="L7" s="12">
+        <v>108.4</v>
+      </c>
+      <c r="M7" s="12">
+        <v>9.91</v>
+      </c>
+      <c r="N7" s="12">
+        <v>13.28</v>
+      </c>
+      <c r="O7" s="12">
+        <v>23.81</v>
+      </c>
+      <c r="P7" s="12">
+        <v>13.38</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>17.92</v>
+      </c>
+      <c r="R7" s="12">
+        <v>13.77</v>
+      </c>
+      <c r="S7" s="12">
+        <v>10.29</v>
+      </c>
+      <c r="T7" s="12">
+        <v>12.09</v>
+      </c>
+      <c r="U7" s="12">
+        <v>15.33</v>
+      </c>
+      <c r="V7" s="12">
+        <v>13.78</v>
+      </c>
+      <c r="W7" s="12">
+        <v>14.75</v>
+      </c>
+      <c r="X7" s="12">
+        <v>16.58</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>15.35</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>16.06</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>11.77</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>10.7</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>11.21</v>
+      </c>
     </row>
     <row r="8" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
+      <c r="A8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12">
+        <v>31.53</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12">
+        <v>21.82</v>
+      </c>
+      <c r="F8" s="12">
+        <v>110.76</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="H8" s="12">
+        <v>12.57</v>
+      </c>
+      <c r="I8" s="12">
+        <v>12.31</v>
+      </c>
+      <c r="J8" s="12">
+        <v>7.14</v>
+      </c>
+      <c r="K8" s="12">
+        <v>9.8</v>
+      </c>
+      <c r="L8" s="12">
+        <v>110.94</v>
+      </c>
+      <c r="M8" s="12">
+        <v>8.14</v>
+      </c>
+      <c r="N8" s="12">
+        <v>12.22</v>
+      </c>
+      <c r="O8" s="12">
+        <v>26.27</v>
+      </c>
+      <c r="P8" s="12">
+        <v>13.4</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>17.88</v>
+      </c>
+      <c r="R8" s="12">
+        <v>13.65</v>
+      </c>
+      <c r="S8" s="12">
+        <v>10.47</v>
+      </c>
+      <c r="T8" s="12">
+        <v>11.81</v>
+      </c>
+      <c r="U8" s="12">
+        <v>15.27</v>
+      </c>
+      <c r="V8" s="12">
+        <v>13.86</v>
+      </c>
+      <c r="W8" s="12">
+        <v>14.75</v>
+      </c>
+      <c r="X8" s="12">
+        <v>16.97</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>15.6</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>16.23</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>11.97</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>10.62</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>11.29</v>
+      </c>
     </row>
     <row r="9" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
+      <c r="A9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="12">
+        <v>31.48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12">
+        <v>21.82</v>
+      </c>
+      <c r="F9" s="12">
+        <v>116.55</v>
+      </c>
+      <c r="G9" s="12">
+        <v>9.78</v>
+      </c>
+      <c r="H9" s="12">
+        <v>12.67</v>
+      </c>
+      <c r="I9" s="12">
+        <v>12.2</v>
+      </c>
+      <c r="J9" s="12">
+        <v>7.32</v>
+      </c>
+      <c r="K9" s="12">
+        <v>9.72</v>
+      </c>
+      <c r="L9" s="12">
+        <v>103.25</v>
+      </c>
+      <c r="M9" s="12">
+        <v>8.43</v>
+      </c>
+      <c r="N9" s="12">
+        <v>12.13</v>
+      </c>
+      <c r="O9" s="12">
+        <v>26.32</v>
+      </c>
+      <c r="P9" s="12">
+        <v>13.19</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>17.76</v>
+      </c>
+      <c r="R9" s="12">
+        <v>13.94</v>
+      </c>
+      <c r="S9" s="12">
+        <v>10.42</v>
+      </c>
+      <c r="T9" s="12">
+        <v>11.75</v>
+      </c>
+      <c r="U9" s="12">
+        <v>15.59</v>
+      </c>
+      <c r="V9" s="12">
+        <v>14.13</v>
+      </c>
+      <c r="W9" s="12">
+        <v>14.8</v>
+      </c>
+      <c r="X9" s="12">
+        <v>16.73</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>15.2</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>15.97</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>11.75</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>10.59</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>11.18</v>
+      </c>
     </row>
     <row r="10" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="12">
+        <v>31.5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="12">
+        <v>21.82</v>
+      </c>
+      <c r="F10" s="12">
+        <v>117.31</v>
+      </c>
+      <c r="G10" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="H10" s="12">
+        <v>12.92</v>
+      </c>
+      <c r="I10" s="12">
+        <v>12.02</v>
+      </c>
+      <c r="J10" s="12">
+        <v>7.16</v>
+      </c>
+      <c r="K10" s="12">
+        <v>9.57</v>
+      </c>
+      <c r="L10" s="12">
+        <v>106.11</v>
+      </c>
+      <c r="M10" s="12">
+        <v>8.41</v>
+      </c>
+      <c r="N10" s="12">
+        <v>12.16</v>
+      </c>
+      <c r="O10" s="12">
+        <v>25.86</v>
+      </c>
+      <c r="P10" s="12">
+        <v>13.21</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>17.63</v>
+      </c>
+      <c r="R10" s="12">
+        <v>13.66</v>
+      </c>
+      <c r="S10" s="12">
+        <v>10.45</v>
+      </c>
+      <c r="T10" s="12">
+        <v>11.75</v>
+      </c>
+      <c r="U10" s="12">
+        <v>15.86</v>
+      </c>
+      <c r="V10" s="12">
+        <v>14.08</v>
+      </c>
+      <c r="W10" s="12">
+        <v>14.74</v>
+      </c>
+      <c r="X10" s="12">
+        <v>16.68</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>15.85</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>11.65</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>10.55</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>11.17</v>
+      </c>
     </row>
     <row r="11" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
+      <c r="A11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12">
+        <v>31.46</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="12">
+        <v>21.78</v>
+      </c>
+      <c r="F11" s="12">
+        <v>109.56</v>
+      </c>
+      <c r="G11" s="12">
+        <v>8.8</v>
+      </c>
+      <c r="H11" s="12">
+        <v>12.96</v>
+      </c>
+      <c r="I11" s="12">
+        <v>77.55</v>
+      </c>
+      <c r="J11" s="12">
+        <v>6.73</v>
+      </c>
+      <c r="K11" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="L11" s="12">
+        <v>108.57</v>
+      </c>
+      <c r="M11" s="12">
+        <v>4.28</v>
+      </c>
+      <c r="N11" s="12">
+        <v>12.23</v>
+      </c>
+      <c r="O11" s="12">
+        <v>25.71</v>
+      </c>
+      <c r="P11" s="12">
+        <v>13.34</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>17.62</v>
+      </c>
+      <c r="R11" s="12">
+        <v>13.65</v>
+      </c>
+      <c r="S11" s="12">
+        <v>10.21</v>
+      </c>
+      <c r="T11" s="12">
+        <v>11.68</v>
+      </c>
+      <c r="U11" s="12">
+        <v>15.47</v>
+      </c>
+      <c r="V11" s="12">
+        <v>13.78</v>
+      </c>
+      <c r="W11" s="12">
+        <v>14.72</v>
+      </c>
+      <c r="X11" s="12">
+        <v>16.4</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>14.22</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>15.7</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>11.76</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>9.11</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>11.04</v>
+      </c>
     </row>
     <row r="12" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
+      <c r="A12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="12">
+        <v>13.38</v>
+      </c>
+      <c r="S12" s="12">
+        <v>10.88</v>
+      </c>
+      <c r="T12" s="12">
+        <v>11.98</v>
+      </c>
+      <c r="U12" s="12">
+        <v>15.09</v>
+      </c>
+      <c r="V12" s="12">
+        <v>14.24</v>
+      </c>
+      <c r="W12" s="12">
+        <v>14.55</v>
+      </c>
+      <c r="X12" s="12">
+        <v>14.72</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>13.93</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>14.34</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>10.38</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>8.08</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="13" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
+      <c r="A13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC13" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="16"/>
     </row>
     <row r="15" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="16"/>
     </row>
     <row r="16" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="16"/>
     </row>
     <row r="17" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="16"/>
     </row>
     <row r="18" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="16"/>
     </row>
     <row r="19" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="16"/>
     </row>
     <row r="20" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="16"/>
     </row>
     <row r="21" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="16"/>
     </row>
     <row r="22" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="16"/>
     </row>
     <row r="23" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="16"/>
     </row>
     <row r="24" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="16"/>
     </row>
     <row r="25" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="16"/>
     </row>
     <row r="26" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="16"/>
     </row>
     <row r="27" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="21"/>
     </row>
     <row r="28" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -1512,8 +2183,8 @@
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -1528,16 +2199,16 @@
       <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/dailyreport.xlsx
+++ b/dailyreport.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="34">
   <si>
     <t>일자</t>
   </si>
   <si>
-    <t>2019-12-08</t>
+    <t>2019-12-09</t>
   </si>
   <si>
     <t>시간</t>
@@ -87,55 +87,37 @@
     <t>1-2</t>
   </si>
   <si>
-    <t>00:19:52</t>
-  </si>
-  <si>
-    <t>00:33:35</t>
-  </si>
-  <si>
     <t>2-3</t>
   </si>
   <si>
-    <t>00:31:47</t>
-  </si>
-  <si>
-    <t>01:00:00</t>
-  </si>
-  <si>
     <t>3-4</t>
   </si>
   <si>
-    <t>00:31:50</t>
-  </si>
-  <si>
     <t>4-5</t>
   </si>
   <si>
-    <t>00:30:53</t>
-  </si>
-  <si>
     <t>5-6</t>
   </si>
   <si>
-    <t>00:30:54</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>00:30:55</t>
-  </si>
-  <si>
     <t>7-8</t>
   </si>
   <si>
-    <t>00:24:46</t>
-  </si>
-  <si>
-    <t>00:53:32</t>
+    <t>00:14:13</t>
+  </si>
+  <si>
+    <t>00:31:38</t>
   </si>
   <si>
     <t>8-9</t>
+  </si>
+  <si>
+    <t>00:22:53</t>
+  </si>
+  <si>
+    <t>00:46:59</t>
   </si>
   <si>
     <t>9-10</t>
@@ -936,716 +918,716 @@
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="12">
-        <v>29.32</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="12">
-        <v>21.17</v>
-      </c>
-      <c r="F5" s="12">
-        <v>126</v>
-      </c>
-      <c r="G5" s="12">
-        <v>10.89</v>
-      </c>
-      <c r="H5" s="12">
-        <v>13.89</v>
-      </c>
-      <c r="I5" s="12">
-        <v>90.28</v>
-      </c>
-      <c r="J5" s="12">
-        <v>5.78</v>
-      </c>
-      <c r="K5" s="12">
-        <v>11.6</v>
-      </c>
-      <c r="L5" s="12">
-        <v>107.67</v>
-      </c>
-      <c r="M5" s="12">
-        <v>10.28</v>
-      </c>
-      <c r="N5" s="12">
-        <v>17.86</v>
-      </c>
-      <c r="O5" s="12">
-        <v>232.4</v>
-      </c>
-      <c r="P5" s="12">
-        <v>13.61</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>17.88</v>
-      </c>
-      <c r="R5" s="12">
-        <v>105.62</v>
-      </c>
-      <c r="S5" s="12">
-        <v>10.69</v>
-      </c>
-      <c r="T5" s="12">
-        <v>12.61</v>
-      </c>
-      <c r="U5" s="12">
-        <v>131.41</v>
-      </c>
-      <c r="V5" s="12">
-        <v>14.24</v>
-      </c>
-      <c r="W5" s="12">
-        <v>14.87</v>
-      </c>
-      <c r="X5" s="12">
-        <v>227.2</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>12.84</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>15.74</v>
-      </c>
-      <c r="AA5" s="12">
-        <v>147.77</v>
-      </c>
-      <c r="AB5" s="12">
-        <v>7.76</v>
-      </c>
-      <c r="AC5" s="13">
-        <v>10.72</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="12">
-        <v>31.49</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="12">
-        <v>21.83</v>
-      </c>
-      <c r="F6" s="12">
-        <v>115.27</v>
-      </c>
-      <c r="G6" s="12">
-        <v>6</v>
-      </c>
-      <c r="H6" s="12">
-        <v>12.64</v>
-      </c>
-      <c r="I6" s="12">
-        <v>12.64</v>
-      </c>
-      <c r="J6" s="12">
-        <v>7.58</v>
-      </c>
-      <c r="K6" s="12">
-        <v>10.36</v>
-      </c>
-      <c r="L6" s="12">
-        <v>109.58</v>
-      </c>
-      <c r="M6" s="12">
-        <v>9.04</v>
-      </c>
-      <c r="N6" s="12">
-        <v>14.28</v>
-      </c>
-      <c r="O6" s="12">
-        <v>24.29</v>
-      </c>
-      <c r="P6" s="12">
-        <v>13.51</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>17.95</v>
-      </c>
-      <c r="R6" s="12">
-        <v>14.32</v>
-      </c>
-      <c r="S6" s="12">
-        <v>10.79</v>
-      </c>
-      <c r="T6" s="12">
-        <v>12.29</v>
-      </c>
-      <c r="U6" s="12">
-        <v>15.39</v>
-      </c>
-      <c r="V6" s="12">
-        <v>14.09</v>
-      </c>
-      <c r="W6" s="12">
-        <v>14.73</v>
-      </c>
-      <c r="X6" s="12">
-        <v>16.73</v>
-      </c>
-      <c r="Y6" s="12">
-        <v>15.31</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>16.01</v>
-      </c>
-      <c r="AA6" s="12">
-        <v>11.53</v>
-      </c>
-      <c r="AB6" s="12">
-        <v>10.55</v>
-      </c>
-      <c r="AC6" s="13">
-        <v>11.04</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="12">
-        <v>31.43</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="12">
-        <v>21.82</v>
-      </c>
-      <c r="F7" s="12">
-        <v>119.14</v>
-      </c>
-      <c r="G7" s="12">
-        <v>10.1</v>
-      </c>
-      <c r="H7" s="12">
-        <v>12.86</v>
-      </c>
-      <c r="I7" s="12">
-        <v>12.43</v>
-      </c>
-      <c r="J7" s="12">
-        <v>7.32</v>
-      </c>
-      <c r="K7" s="12">
-        <v>10.05</v>
-      </c>
-      <c r="L7" s="12">
-        <v>108.4</v>
-      </c>
-      <c r="M7" s="12">
-        <v>9.91</v>
-      </c>
-      <c r="N7" s="12">
-        <v>13.28</v>
-      </c>
-      <c r="O7" s="12">
-        <v>23.81</v>
-      </c>
-      <c r="P7" s="12">
-        <v>13.38</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>17.92</v>
-      </c>
-      <c r="R7" s="12">
-        <v>13.77</v>
-      </c>
-      <c r="S7" s="12">
-        <v>10.29</v>
-      </c>
-      <c r="T7" s="12">
-        <v>12.09</v>
-      </c>
-      <c r="U7" s="12">
-        <v>15.33</v>
-      </c>
-      <c r="V7" s="12">
-        <v>13.78</v>
-      </c>
-      <c r="W7" s="12">
-        <v>14.75</v>
-      </c>
-      <c r="X7" s="12">
-        <v>16.58</v>
-      </c>
-      <c r="Y7" s="12">
-        <v>15.35</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>16.06</v>
-      </c>
-      <c r="AA7" s="12">
-        <v>11.77</v>
-      </c>
-      <c r="AB7" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="AC7" s="13">
-        <v>11.21</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="12">
-        <v>31.53</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="12">
-        <v>21.82</v>
-      </c>
-      <c r="F8" s="12">
-        <v>110.76</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.61</v>
-      </c>
-      <c r="H8" s="12">
-        <v>12.57</v>
-      </c>
-      <c r="I8" s="12">
-        <v>12.31</v>
-      </c>
-      <c r="J8" s="12">
-        <v>7.14</v>
-      </c>
-      <c r="K8" s="12">
-        <v>9.8</v>
-      </c>
-      <c r="L8" s="12">
-        <v>110.94</v>
-      </c>
-      <c r="M8" s="12">
-        <v>8.14</v>
-      </c>
-      <c r="N8" s="12">
-        <v>12.22</v>
-      </c>
-      <c r="O8" s="12">
-        <v>26.27</v>
-      </c>
-      <c r="P8" s="12">
-        <v>13.4</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>17.88</v>
-      </c>
-      <c r="R8" s="12">
-        <v>13.65</v>
-      </c>
-      <c r="S8" s="12">
-        <v>10.47</v>
-      </c>
-      <c r="T8" s="12">
-        <v>11.81</v>
-      </c>
-      <c r="U8" s="12">
-        <v>15.27</v>
-      </c>
-      <c r="V8" s="12">
-        <v>13.86</v>
-      </c>
-      <c r="W8" s="12">
-        <v>14.75</v>
-      </c>
-      <c r="X8" s="12">
-        <v>16.97</v>
-      </c>
-      <c r="Y8" s="12">
-        <v>15.6</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>16.23</v>
-      </c>
-      <c r="AA8" s="12">
-        <v>11.97</v>
-      </c>
-      <c r="AB8" s="12">
-        <v>10.62</v>
-      </c>
-      <c r="AC8" s="13">
-        <v>11.29</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="12">
-        <v>31.48</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="12">
-        <v>21.82</v>
-      </c>
-      <c r="F9" s="12">
-        <v>116.55</v>
-      </c>
-      <c r="G9" s="12">
-        <v>9.78</v>
-      </c>
-      <c r="H9" s="12">
-        <v>12.67</v>
-      </c>
-      <c r="I9" s="12">
-        <v>12.2</v>
-      </c>
-      <c r="J9" s="12">
-        <v>7.32</v>
-      </c>
-      <c r="K9" s="12">
-        <v>9.72</v>
-      </c>
-      <c r="L9" s="12">
-        <v>103.25</v>
-      </c>
-      <c r="M9" s="12">
-        <v>8.43</v>
-      </c>
-      <c r="N9" s="12">
-        <v>12.13</v>
-      </c>
-      <c r="O9" s="12">
-        <v>26.32</v>
-      </c>
-      <c r="P9" s="12">
-        <v>13.19</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>17.76</v>
-      </c>
-      <c r="R9" s="12">
-        <v>13.94</v>
-      </c>
-      <c r="S9" s="12">
-        <v>10.42</v>
-      </c>
-      <c r="T9" s="12">
-        <v>11.75</v>
-      </c>
-      <c r="U9" s="12">
-        <v>15.59</v>
-      </c>
-      <c r="V9" s="12">
-        <v>14.13</v>
-      </c>
-      <c r="W9" s="12">
-        <v>14.8</v>
-      </c>
-      <c r="X9" s="12">
-        <v>16.73</v>
-      </c>
-      <c r="Y9" s="12">
-        <v>15.2</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>15.97</v>
-      </c>
-      <c r="AA9" s="12">
-        <v>11.75</v>
-      </c>
-      <c r="AB9" s="12">
-        <v>10.59</v>
-      </c>
-      <c r="AC9" s="13">
-        <v>11.18</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="12">
-        <v>31.5</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="12">
-        <v>21.82</v>
-      </c>
-      <c r="F10" s="12">
-        <v>117.31</v>
-      </c>
-      <c r="G10" s="12">
-        <v>10.02</v>
-      </c>
-      <c r="H10" s="12">
-        <v>12.92</v>
-      </c>
-      <c r="I10" s="12">
-        <v>12.02</v>
-      </c>
-      <c r="J10" s="12">
-        <v>7.16</v>
-      </c>
-      <c r="K10" s="12">
-        <v>9.57</v>
-      </c>
-      <c r="L10" s="12">
-        <v>106.11</v>
-      </c>
-      <c r="M10" s="12">
-        <v>8.41</v>
-      </c>
-      <c r="N10" s="12">
-        <v>12.16</v>
-      </c>
-      <c r="O10" s="12">
-        <v>25.86</v>
-      </c>
-      <c r="P10" s="12">
-        <v>13.21</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>17.63</v>
-      </c>
-      <c r="R10" s="12">
-        <v>13.66</v>
-      </c>
-      <c r="S10" s="12">
-        <v>10.45</v>
-      </c>
-      <c r="T10" s="12">
-        <v>11.75</v>
-      </c>
-      <c r="U10" s="12">
-        <v>15.86</v>
-      </c>
-      <c r="V10" s="12">
-        <v>14.08</v>
-      </c>
-      <c r="W10" s="12">
-        <v>14.74</v>
-      </c>
-      <c r="X10" s="12">
-        <v>16.68</v>
-      </c>
-      <c r="Y10" s="12">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>15.85</v>
-      </c>
-      <c r="AA10" s="12">
-        <v>11.65</v>
-      </c>
-      <c r="AB10" s="12">
-        <v>10.55</v>
-      </c>
-      <c r="AC10" s="13">
-        <v>11.17</v>
+        <v>19</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C11" s="12">
-        <v>31.46</v>
+        <v>30.44</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E11" s="12">
-        <v>21.78</v>
+        <v>16.57</v>
       </c>
       <c r="F11" s="12">
-        <v>109.56</v>
+        <v>131.99</v>
       </c>
       <c r="G11" s="12">
-        <v>8.8</v>
+        <v>8.86</v>
       </c>
       <c r="H11" s="12">
-        <v>12.96</v>
+        <v>13.87</v>
       </c>
       <c r="I11" s="12">
-        <v>77.55</v>
+        <v>89.48</v>
       </c>
       <c r="J11" s="12">
-        <v>6.73</v>
+        <v>5.77</v>
       </c>
       <c r="K11" s="12">
-        <v>9.5</v>
+        <v>11.67</v>
       </c>
       <c r="L11" s="12">
-        <v>108.57</v>
+        <v>110.25</v>
       </c>
       <c r="M11" s="12">
-        <v>4.28</v>
+        <v>6.17</v>
       </c>
       <c r="N11" s="12">
-        <v>12.23</v>
+        <v>13.51</v>
       </c>
       <c r="O11" s="12">
-        <v>25.71</v>
+        <v>219.09</v>
       </c>
       <c r="P11" s="12">
-        <v>13.34</v>
+        <v>13.23</v>
       </c>
       <c r="Q11" s="12">
-        <v>17.62</v>
+        <v>17.96</v>
       </c>
       <c r="R11" s="12">
-        <v>13.65</v>
+        <v>106.73</v>
       </c>
       <c r="S11" s="12">
-        <v>10.21</v>
+        <v>10.45</v>
       </c>
       <c r="T11" s="12">
-        <v>11.68</v>
+        <v>12.29</v>
       </c>
       <c r="U11" s="12">
-        <v>15.47</v>
+        <v>128.63</v>
       </c>
       <c r="V11" s="12">
-        <v>13.78</v>
+        <v>14.53</v>
       </c>
       <c r="W11" s="12">
-        <v>14.72</v>
+        <v>15.03</v>
       </c>
       <c r="X11" s="12">
-        <v>16.4</v>
+        <v>236.79</v>
       </c>
       <c r="Y11" s="12">
-        <v>14.22</v>
+        <v>13.2</v>
       </c>
       <c r="Z11" s="12">
-        <v>15.7</v>
+        <v>14.53</v>
       </c>
       <c r="AA11" s="12">
-        <v>11.76</v>
+        <v>147.12</v>
       </c>
       <c r="AB11" s="12">
-        <v>9.11</v>
+        <v>8.08</v>
       </c>
       <c r="AC11" s="13">
-        <v>11.04</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="C12" s="12">
+        <v>32.01</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="E12" s="12">
+        <v>18.88</v>
+      </c>
+      <c r="F12" s="12">
+        <v>117.95</v>
+      </c>
+      <c r="G12" s="12">
+        <v>7.54</v>
+      </c>
+      <c r="H12" s="12">
+        <v>11.33</v>
+      </c>
+      <c r="I12" s="12">
+        <v>79.65</v>
+      </c>
+      <c r="J12" s="12">
+        <v>7.47</v>
+      </c>
+      <c r="K12" s="12">
+        <v>10.69</v>
+      </c>
+      <c r="L12" s="12">
+        <v>101.91</v>
+      </c>
+      <c r="M12" s="12">
+        <v>9.02</v>
+      </c>
+      <c r="N12" s="12">
+        <v>12.98</v>
+      </c>
+      <c r="O12" s="12">
+        <v>27.84</v>
+      </c>
+      <c r="P12" s="12">
+        <v>12.86</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>16.86</v>
       </c>
       <c r="R12" s="12">
-        <v>13.38</v>
+        <v>14.05</v>
       </c>
       <c r="S12" s="12">
-        <v>10.88</v>
+        <v>10.01</v>
       </c>
       <c r="T12" s="12">
-        <v>11.98</v>
+        <v>12.07</v>
       </c>
       <c r="U12" s="12">
-        <v>15.09</v>
+        <v>15.47</v>
       </c>
       <c r="V12" s="12">
-        <v>14.24</v>
+        <v>13.93</v>
       </c>
       <c r="W12" s="12">
-        <v>14.55</v>
+        <v>14.83</v>
       </c>
       <c r="X12" s="12">
-        <v>14.72</v>
+        <v>15.68</v>
       </c>
       <c r="Y12" s="12">
-        <v>13.93</v>
+        <v>13.07</v>
       </c>
       <c r="Z12" s="12">
-        <v>14.34</v>
+        <v>14.81</v>
       </c>
       <c r="AA12" s="12">
-        <v>10.38</v>
+        <v>11.46</v>
       </c>
       <c r="AB12" s="12">
-        <v>8.08</v>
+        <v>8.5</v>
       </c>
       <c r="AC12" s="13">
-        <v>8.98</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>19</v>
@@ -1659,77 +1641,77 @@
       <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>20</v>
+      <c r="F13" s="12">
+        <v>7.79</v>
+      </c>
+      <c r="G13" s="12">
+        <v>7.79</v>
+      </c>
+      <c r="H13" s="12">
+        <v>7.79</v>
+      </c>
+      <c r="I13" s="12">
+        <v>11.03</v>
+      </c>
+      <c r="J13" s="12">
+        <v>11.03</v>
+      </c>
+      <c r="K13" s="12">
+        <v>11.03</v>
+      </c>
+      <c r="L13" s="12">
+        <v>10.95</v>
+      </c>
+      <c r="M13" s="12">
+        <v>10.95</v>
+      </c>
+      <c r="N13" s="12">
+        <v>10.95</v>
+      </c>
+      <c r="O13" s="12">
+        <v>13.64</v>
+      </c>
+      <c r="P13" s="12">
+        <v>13.64</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>13.64</v>
+      </c>
+      <c r="R13" s="12">
+        <v>11.48</v>
+      </c>
+      <c r="S13" s="12">
+        <v>11.48</v>
+      </c>
+      <c r="T13" s="12">
+        <v>11.48</v>
+      </c>
+      <c r="U13" s="12">
+        <v>14.49</v>
+      </c>
+      <c r="V13" s="12">
+        <v>14.49</v>
+      </c>
+      <c r="W13" s="12">
+        <v>14.49</v>
+      </c>
+      <c r="X13" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>8.64</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>8.64</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>8.64</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
